--- a/evaluation/code/BURT ICSE’22 Evaluation Survey_August 23_latest.xlsx
+++ b/evaluation/code/BURT ICSE’22 Evaluation Survey_August 23_latest.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\burt\evaluation\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07B6A239-2BCD-45CE-86A2-3946C3DAC4A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA04E2F-9061-446F-A39A-92E2C7AD5801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31427" yWindow="1014" windowWidth="24929" windowHeight="14503" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2938" yWindow="806" windowWidth="24929" windowHeight="14504" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$AV$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$2:$AV$21</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="416">
   <si>
     <t>StartDate</t>
   </si>
@@ -778,68 +778,6 @@
   </si>
   <si>
     <t>Wouldn't it be easier if the user can just upload an image of the bug to the system?</t>
-  </si>
-  <si>
-    <t>99.37.200.162</t>
-  </si>
-  <si>
-    <t>R_2YKyhvNQb3GzQhe</t>
-  </si>
-  <si>
-    <t>Ahmad Mohammad AlShomar</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P7-ATimeTracker-0.20-ae8a6750-7a5b-42e2-b4ab-7fa737af45f3</t>
-  </si>
-  <si>
-    <t>P7-AntennaPod-1.6.2.3-049ec4fa-ade7-4083-ad6b-223bc63faf39</t>
-  </si>
-  <si>
-    <t>P7-GnuCash-1.0.3-c0de21fa-e331-4899-9cc6-ee68fef74db7</t>
-  </si>
-  <si>
-    <t>Sometimes I typed the same words in the app but it doesn't show up in the BURT suggestions.</t>
-  </si>
-  <si>
-    <t>I think you should add more words to cover all possible suggestions.</t>
-  </si>
-  <si>
-    <t>Sometime BUT doesn't understand some sentences like: I wrote ("The app has stopped"), even though it is already written in the app screen that the app has stopped.</t>
-  </si>
-  <si>
-    <t>I think BURT fine with that.</t>
-  </si>
-  <si>
-    <t>Sometime BURT doesn't understand general sentences like:
-I wrote ("I adding new accounts")
-But if I write ("I created accounts") BURT taking it.</t>
-  </si>
-  <si>
-    <t>At first time I didn't understand but after playing around I understand it.</t>
-  </si>
-  <si>
-    <t>1. BURT should understand the misspelling words to cover a wide range of words and make it easy for the end-users.
-2. BURT should understand the general sentences, not a specific one or you could tag each screen with a specific ID(or word) and give it to the end-users. Therefore, the end-users write the id (or word)to make the screenshot (suggestions) show up.</t>
-  </si>
-  <si>
-    <t>Fantastic.</t>
-  </si>
-  <si>
-    <t>Non.</t>
-  </si>
-  <si>
-    <t>The BURT UI in general is really helpful.</t>
-  </si>
-  <si>
-    <t>You need to play around more to get the idea to understand.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One important piece of advice, BURT should cover a wide range of words because BURT considers the "add" word not like the "create" word. 
-Fantastic App.
-Good luck :) </t>
   </si>
   <si>
     <t>68.225.189.127</t>
@@ -1741,11 +1679,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AV21"/>
+  <dimension ref="A1:AV20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3066,10 +3004,10 @@
     </row>
     <row r="10" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>44428.031828703701</v>
+        <v>44429.548750000002</v>
       </c>
       <c r="B10" s="1">
-        <v>44429.544074074074</v>
+        <v>44429.589606481481</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
@@ -3081,13 +3019,13 @@
         <v>100</v>
       </c>
       <c r="F10">
-        <v>130658</v>
+        <v>3530</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H10" s="1">
-        <v>44429.544087025461</v>
+        <v>44429.589625578701</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>247</v>
@@ -3105,10 +3043,10 @@
         <v>93</v>
       </c>
       <c r="N10">
-        <v>32.963592529296875</v>
+        <v>37.3197021484375</v>
       </c>
       <c r="O10">
-        <v>-96.746803283691406</v>
+        <v>-76.762496948242188</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>94</v>
@@ -3123,16 +3061,16 @@
         <v>249</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>93</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="X10" s="2" t="s">
         <v>250</v>
@@ -3144,99 +3082,99 @@
         <v>252</v>
       </c>
       <c r="AA10" s="2" t="s">
-        <v>104</v>
+        <v>253</v>
       </c>
       <c r="AB10" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC10" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="AC10" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="AD10" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF10" s="2" t="s">
-        <v>254</v>
+        <v>93</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AH10" s="2" t="s">
-        <v>255</v>
+        <v>93</v>
       </c>
       <c r="AI10" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AJ10" s="2" t="s">
-        <v>256</v>
+        <v>93</v>
       </c>
       <c r="AK10" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AL10" s="2" t="s">
-        <v>257</v>
+        <v>93</v>
       </c>
       <c r="AM10" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="AN10" s="2" t="s">
-        <v>258</v>
+        <v>93</v>
       </c>
       <c r="AO10" s="2" t="s">
-        <v>259</v>
+        <v>93</v>
       </c>
       <c r="AP10" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AQ10" s="2" t="s">
-        <v>260</v>
+        <v>93</v>
       </c>
       <c r="AR10" s="2" t="s">
-        <v>261</v>
+        <v>93</v>
       </c>
       <c r="AS10" s="2" t="s">
-        <v>117</v>
+        <v>221</v>
       </c>
       <c r="AT10" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="AU10" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AV10" s="2" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>44429.548750000002</v>
+        <v>44429.54347222222</v>
       </c>
       <c r="B11" s="1">
-        <v>44429.589606481481</v>
+        <v>44429.617719907408</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="E11">
         <v>100</v>
       </c>
       <c r="F11">
-        <v>3530</v>
+        <v>6414</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H11" s="1">
-        <v>44429.589625578701</v>
+        <v>44429.617731643521</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="J11" s="2" t="s">
         <v>93</v>
@@ -3251,10 +3189,10 @@
         <v>93</v>
       </c>
       <c r="N11">
-        <v>37.3197021484375</v>
+        <v>38.0321044921875</v>
       </c>
       <c r="O11">
-        <v>-76.762496948242188</v>
+        <v>-78.488998413085938</v>
       </c>
       <c r="P11" s="2" t="s">
         <v>94</v>
@@ -3263,10 +3201,10 @@
         <v>95</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>98</v>
@@ -3275,76 +3213,76 @@
         <v>93</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="W11" s="2" t="s">
-        <v>167</v>
+        <v>99</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Y11" s="2" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="AA11" s="2" t="s">
-        <v>272</v>
+        <v>171</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>103</v>
+        <v>232</v>
       </c>
       <c r="AC11" s="2" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="AD11" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AE11" s="2" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AF11" s="2" t="s">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AH11" s="2" t="s">
-        <v>93</v>
+        <v>267</v>
       </c>
       <c r="AI11" s="2" t="s">
-        <v>111</v>
+        <v>235</v>
       </c>
       <c r="AJ11" s="2" t="s">
-        <v>93</v>
+        <v>268</v>
       </c>
       <c r="AK11" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AL11" s="2" t="s">
-        <v>93</v>
+        <v>269</v>
       </c>
       <c r="AM11" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="AN11" s="2" t="s">
-        <v>93</v>
+        <v>270</v>
       </c>
       <c r="AO11" s="2" t="s">
-        <v>93</v>
+        <v>271</v>
       </c>
       <c r="AP11" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AQ11" s="2" t="s">
-        <v>93</v>
+        <v>272</v>
       </c>
       <c r="AR11" s="2" t="s">
-        <v>93</v>
+        <v>273</v>
       </c>
       <c r="AS11" s="2" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="AT11" s="2" t="s">
         <v>274</v>
@@ -3358,10 +3296,10 @@
     </row>
     <row r="12" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>44429.54347222222</v>
+        <v>44429.852337962962</v>
       </c>
       <c r="B12" s="1">
-        <v>44429.617719907408</v>
+        <v>44429.892407407409</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>51</v>
@@ -3373,13 +3311,13 @@
         <v>100</v>
       </c>
       <c r="F12">
-        <v>6414</v>
+        <v>3462</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H12" s="1">
-        <v>44429.617731643521</v>
+        <v>44429.892426956016</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>278</v>
@@ -3397,10 +3335,10 @@
         <v>93</v>
       </c>
       <c r="N12">
-        <v>38.0321044921875</v>
+        <v>32.947296142578125</v>
       </c>
       <c r="O12">
-        <v>-78.488998413085938</v>
+        <v>-96.702796936035156</v>
       </c>
       <c r="P12" s="2" t="s">
         <v>94</v>
@@ -3415,16 +3353,16 @@
         <v>280</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>93</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="X12" s="2" t="s">
         <v>281</v>
@@ -3436,99 +3374,99 @@
         <v>283</v>
       </c>
       <c r="AA12" s="2" t="s">
-        <v>171</v>
+        <v>284</v>
       </c>
       <c r="AB12" s="2" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="AC12" s="2" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="AD12" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AE12" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AF12" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG12" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AH12" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AI12" s="2" t="s">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="AJ12" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AK12" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AL12" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM12" s="2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="AN12" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AO12" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AP12" s="2" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="AQ12" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AR12" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AS12" s="2" t="s">
-        <v>242</v>
+        <v>117</v>
       </c>
       <c r="AT12" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AU12" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AV12" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>44429.852337962962</v>
+        <v>44427.602800925924</v>
       </c>
       <c r="B13" s="1">
-        <v>44429.892407407409</v>
+        <v>44430.747060185182</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E13">
         <v>100</v>
       </c>
       <c r="F13">
-        <v>3462</v>
+        <v>271664</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H13" s="1">
-        <v>44429.892426956016</v>
+        <v>44430.747079814813</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J13" s="2" t="s">
         <v>93</v>
@@ -3543,10 +3481,10 @@
         <v>93</v>
       </c>
       <c r="N13">
-        <v>32.947296142578125</v>
+        <v>32.950302124023438</v>
       </c>
       <c r="O13">
-        <v>-96.702796936035156</v>
+        <v>-96.819000244140625</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>94</v>
@@ -3555,22 +3493,22 @@
         <v>95</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="S13" s="2" t="s">
         <v>299</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>166</v>
+        <v>210</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>93</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>300</v>
@@ -3582,99 +3520,99 @@
         <v>302</v>
       </c>
       <c r="AA13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB13" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC13" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE13" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="AB13" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC13" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="AD13" s="2" t="s">
+      <c r="AF13" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG13" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AE13" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="AF13" s="2" t="s">
+      <c r="AH13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM13" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO13" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="AG13" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH13" s="2" t="s">
+      <c r="AP13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS13" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT13" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="AI13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AU13" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="AK13" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL13" s="2" t="s">
+      <c r="AV13" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="AM13" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN13" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="AO13" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="AP13" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ13" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="AR13" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="AS13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT13" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="AU13" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AV13" s="2" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>44427.602800925924</v>
+        <v>44430.780624999999</v>
       </c>
       <c r="B14" s="1">
-        <v>44430.747060185182</v>
+        <v>44430.827581018515</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E14">
         <v>100</v>
       </c>
       <c r="F14">
-        <v>271664</v>
+        <v>4056</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H14" s="1">
-        <v>44430.747079814813</v>
+        <v>44430.827590127315</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="J14" s="2" t="s">
         <v>93</v>
@@ -3689,10 +3627,10 @@
         <v>93</v>
       </c>
       <c r="N14">
-        <v>32.950302124023438</v>
+        <v>32.963592529296875</v>
       </c>
       <c r="O14">
-        <v>-96.819000244140625</v>
+        <v>-96.746803283691406</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>94</v>
@@ -3701,13 +3639,13 @@
         <v>95</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>93</v>
@@ -3719,70 +3657,70 @@
         <v>126</v>
       </c>
       <c r="X14" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AA14" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB14" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD14" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="AF14" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH14" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AI14" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
         <v>319</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z14" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD14" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="AF14" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AG14" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="AK14" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AL14" s="2" t="s">
-        <v>93</v>
+        <v>320</v>
       </c>
       <c r="AM14" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AN14" s="2" t="s">
-        <v>93</v>
+        <v>321</v>
       </c>
       <c r="AO14" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="AP14" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AQ14" s="2" t="s">
-        <v>93</v>
+        <v>323</v>
       </c>
       <c r="AR14" s="2" t="s">
-        <v>93</v>
+        <v>324</v>
       </c>
       <c r="AS14" s="2" t="s">
-        <v>221</v>
+        <v>117</v>
       </c>
       <c r="AT14" s="2" t="s">
         <v>325</v>
@@ -3796,10 +3734,10 @@
     </row>
     <row r="15" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>44430.780624999999</v>
+        <v>44430.693553240744</v>
       </c>
       <c r="B15" s="1">
-        <v>44430.827581018515</v>
+        <v>44430.854004629633</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>51</v>
@@ -3811,13 +3749,13 @@
         <v>100</v>
       </c>
       <c r="F15">
-        <v>4056</v>
+        <v>13862</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H15" s="1">
-        <v>44430.827590127315</v>
+        <v>44430.854010034724</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>329</v>
@@ -3835,10 +3773,10 @@
         <v>93</v>
       </c>
       <c r="N15">
-        <v>32.963592529296875</v>
+        <v>28.62249755859375</v>
       </c>
       <c r="O15">
-        <v>-96.746803283691406</v>
+        <v>-81.43170166015625</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>94</v>
@@ -3859,10 +3797,10 @@
         <v>93</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="X15" s="2" t="s">
         <v>332</v>
@@ -3874,13 +3812,13 @@
         <v>334</v>
       </c>
       <c r="AA15" s="2" t="s">
-        <v>152</v>
+        <v>232</v>
       </c>
       <c r="AB15" s="2" t="s">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="AC15" s="2" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="AD15" s="2" t="s">
         <v>111</v>
@@ -3889,84 +3827,84 @@
         <v>335</v>
       </c>
       <c r="AF15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH15" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AI15" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AH15" s="2" t="s">
+      <c r="AJ15" s="2" t="s">
         <v>337</v>
-      </c>
-      <c r="AI15" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ15" s="2" t="s">
-        <v>338</v>
       </c>
       <c r="AK15" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AL15" s="2" t="s">
-        <v>339</v>
+        <v>93</v>
       </c>
       <c r="AM15" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AN15" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="AO15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AR15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS15" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT15" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="AU15" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="AO15" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AP15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ15" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AR15" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="AS15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT15" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="AU15" s="2" t="s">
-        <v>345</v>
-      </c>
       <c r="AV15" s="2" t="s">
-        <v>346</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>44430.693553240744</v>
+        <v>44430.640393518515</v>
       </c>
       <c r="B16" s="1">
-        <v>44430.854004629633</v>
+        <v>44430.873622685183</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E16">
         <v>100</v>
       </c>
       <c r="F16">
-        <v>13862</v>
+        <v>20151</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H16" s="1">
-        <v>44430.854010034724</v>
+        <v>44430.873639814818</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>93</v>
@@ -3981,10 +3919,10 @@
         <v>93</v>
       </c>
       <c r="N16">
-        <v>28.62249755859375</v>
+        <v>37.273101806640625</v>
       </c>
       <c r="O16">
-        <v>-81.43170166015625</v>
+        <v>-76.727897644042969</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>94</v>
@@ -3993,13 +3931,13 @@
         <v>95</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>93</v>
@@ -4011,108 +3949,108 @@
         <v>167</v>
       </c>
       <c r="X16" s="2" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Y16" s="2" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="Z16" s="2" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="AA16" s="2" t="s">
-        <v>232</v>
+        <v>103</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>173</v>
+        <v>104</v>
       </c>
       <c r="AC16" s="2" t="s">
-        <v>193</v>
+        <v>253</v>
       </c>
       <c r="AD16" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AE16" s="2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AF16" s="2" t="s">
-        <v>93</v>
+        <v>349</v>
       </c>
       <c r="AG16" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AH16" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="AI16" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AJ16" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK16" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL16" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="AO16" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="AP16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="AR16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AS16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT16" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="AK16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM16" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AU16" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="AO16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AP16" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS16" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT16" s="2" t="s">
+      <c r="AV16" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="AU16" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="AV16" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>44430.640393518515</v>
+        <v>44430.866782407407</v>
       </c>
       <c r="B17" s="1">
-        <v>44430.873622685183</v>
+        <v>44430.911689814813</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E17">
         <v>100</v>
       </c>
       <c r="F17">
-        <v>20151</v>
+        <v>3879</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H17" s="1">
-        <v>44430.873639814818</v>
+        <v>44430.911695173614</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="J17" s="2" t="s">
         <v>93</v>
@@ -4127,10 +4065,10 @@
         <v>93</v>
       </c>
       <c r="N17">
-        <v>37.273101806640625</v>
+        <v>37.750595092773438</v>
       </c>
       <c r="O17">
-        <v>-76.727897644042969</v>
+        <v>-122.41210174560547</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>94</v>
@@ -4139,10 +4077,10 @@
         <v>95</v>
       </c>
       <c r="R17" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>210</v>
@@ -4151,114 +4089,114 @@
         <v>93</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="X17" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y17" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="Y17" s="2" t="s">
+      <c r="Z17" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="Z17" s="2" t="s">
+      <c r="AA17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AB17" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE17" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AA17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC17" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="AD17" s="2" t="s">
+      <c r="AF17" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AG17" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AE17" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF17" s="2" t="s">
+      <c r="AH17" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="AG17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH17" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="AI17" s="2" t="s">
         <v>106</v>
       </c>
       <c r="AJ17" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AK17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AL17" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="AK17" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL17" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="AM17" s="2" t="s">
         <v>136</v>
       </c>
       <c r="AN17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AO17" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="AO17" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="AP17" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AQ17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AR17" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS17" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT17" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="AU17" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AR17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT17" s="2" t="s">
+      <c r="AV17" s="2" t="s">
         <v>375</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="AV17" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="18" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>44430.866782407407</v>
+        <v>44430.954618055555</v>
       </c>
       <c r="B18" s="1">
-        <v>44430.911689814813</v>
+        <v>44430.980821759258</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E18">
         <v>100</v>
       </c>
       <c r="F18">
-        <v>3879</v>
+        <v>2263</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H18" s="1">
-        <v>44430.911695173614</v>
+        <v>44430.980830393521</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>93</v>
@@ -4273,10 +4211,10 @@
         <v>93</v>
       </c>
       <c r="N18">
-        <v>37.750595092773438</v>
+        <v>37.273101806640625</v>
       </c>
       <c r="O18">
-        <v>-122.41210174560547</v>
+        <v>-76.727897644042969</v>
       </c>
       <c r="P18" s="2" t="s">
         <v>94</v>
@@ -4285,10 +4223,10 @@
         <v>95</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>210</v>
@@ -4303,108 +4241,108 @@
         <v>126</v>
       </c>
       <c r="X18" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE18" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="Y18" s="2" t="s">
+      <c r="AF18" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="Z18" s="2" t="s">
+      <c r="AG18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AK18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AN18" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="AA18" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AD18" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE18" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="AF18" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="AG18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AJ18" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="AK18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL18" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="AM18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>390</v>
-      </c>
       <c r="AO18" s="2" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="AP18" s="2" t="s">
-        <v>157</v>
+        <v>114</v>
       </c>
       <c r="AQ18" s="2" t="s">
-        <v>390</v>
+        <v>93</v>
       </c>
       <c r="AR18" s="2" t="s">
-        <v>390</v>
+        <v>93</v>
       </c>
       <c r="AS18" s="2" t="s">
         <v>141</v>
       </c>
       <c r="AT18" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="AU18" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="AV18" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="19" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>44430.954618055555</v>
+        <v>44431.332858796297</v>
       </c>
       <c r="B19" s="1">
-        <v>44430.980821759258</v>
+        <v>44431.393657407411</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E19">
         <v>100</v>
       </c>
       <c r="F19">
-        <v>2263</v>
+        <v>5253</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H19" s="1">
-        <v>44430.980830393521</v>
+        <v>44431.39367179398</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="J19" s="2" t="s">
         <v>93</v>
@@ -4419,10 +4357,10 @@
         <v>93</v>
       </c>
       <c r="N19">
-        <v>37.273101806640625</v>
+        <v>36.985794067382813</v>
       </c>
       <c r="O19">
-        <v>-76.727897644042969</v>
+        <v>-79.882797241210938</v>
       </c>
       <c r="P19" s="2" t="s">
         <v>94</v>
@@ -4431,13 +4369,13 @@
         <v>95</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>210</v>
+        <v>98</v>
       </c>
       <c r="U19" s="2" t="s">
         <v>93</v>
@@ -4446,111 +4384,111 @@
         <v>126</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="Y19" s="2" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="Z19" s="2" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="AA19" s="2" t="s">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>171</v>
+        <v>253</v>
       </c>
       <c r="AC19" s="2" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="AD19" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="AF19" s="2" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="AG19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AH19" s="2" t="s">
-        <v>93</v>
+        <v>397</v>
       </c>
       <c r="AI19" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AJ19" s="2" t="s">
-        <v>93</v>
+        <v>398</v>
       </c>
       <c r="AK19" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AL19" s="2" t="s">
-        <v>93</v>
+        <v>399</v>
       </c>
       <c r="AM19" s="2" t="s">
-        <v>111</v>
+        <v>136</v>
       </c>
       <c r="AN19" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="AO19" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="AP19" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="AR19" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="AS19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT19" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="AO19" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="AP19" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AQ19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT19" s="2" t="s">
+      <c r="AU19" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="AU19" s="2" t="s">
-        <v>405</v>
-      </c>
       <c r="AV19" s="2" t="s">
-        <v>406</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>44431.332858796297</v>
+        <v>44431.671446759261</v>
       </c>
       <c r="B20" s="1">
-        <v>44431.393657407411</v>
+        <v>44431.692442129628</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E20">
         <v>100</v>
       </c>
       <c r="F20">
-        <v>5253</v>
+        <v>1814</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>91</v>
       </c>
       <c r="H20" s="1">
-        <v>44431.39367179398</v>
+        <v>44431.692463969906</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J20" s="2" t="s">
         <v>93</v>
@@ -4565,10 +4503,10 @@
         <v>93</v>
       </c>
       <c r="N20">
-        <v>36.985794067382813</v>
+        <v>42.347396850585938</v>
       </c>
       <c r="O20">
-        <v>-79.882797241210938</v>
+        <v>-71.158203125</v>
       </c>
       <c r="P20" s="2" t="s">
         <v>94</v>
@@ -4577,10 +4515,10 @@
         <v>95</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="T20" s="2" t="s">
         <v>98</v>
@@ -4592,235 +4530,89 @@
         <v>126</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="X20" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="Z20" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="Y20" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="Z20" s="2" t="s">
-        <v>413</v>
-      </c>
       <c r="AA20" s="2" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>272</v>
+        <v>193</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>303</v>
+        <v>172</v>
       </c>
       <c r="AD20" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AE20" s="2" t="s">
-        <v>414</v>
+        <v>93</v>
       </c>
       <c r="AF20" s="2" t="s">
-        <v>415</v>
+        <v>93</v>
       </c>
       <c r="AG20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI20" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AH20" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="AI20" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="AJ20" s="2" t="s">
-        <v>417</v>
+        <v>93</v>
       </c>
       <c r="AK20" s="2" t="s">
         <v>111</v>
       </c>
       <c r="AL20" s="2" t="s">
-        <v>418</v>
+        <v>93</v>
       </c>
       <c r="AM20" s="2" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="AN20" s="2" t="s">
-        <v>419</v>
+        <v>93</v>
       </c>
       <c r="AO20" s="2" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="AP20" s="2" t="s">
         <v>157</v>
       </c>
       <c r="AQ20" s="2" t="s">
-        <v>421</v>
+        <v>93</v>
       </c>
       <c r="AR20" s="2" t="s">
-        <v>390</v>
+        <v>93</v>
       </c>
       <c r="AS20" s="2" t="s">
         <v>117</v>
       </c>
       <c r="AT20" s="2" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="AU20" s="2" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="AV20" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:48" ht="29.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>44431.671446759261</v>
-      </c>
-      <c r="B21" s="1">
-        <v>44431.692442129628</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="E21">
-        <v>100</v>
-      </c>
-      <c r="F21">
-        <v>1814</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="1">
-        <v>44431.692463969906</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="N21">
-        <v>42.347396850585938</v>
-      </c>
-      <c r="O21">
-        <v>-71.158203125</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y21" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="Z21" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="AC21" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="AD21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AI21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AK21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AL21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM21" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AN21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO21" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AP21" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="AQ21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AR21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AS21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AT21" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="AU21" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="AV21" s="2" t="s">
-        <v>434</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AV22" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:AV21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C13 D1:D13 G1:G13 I1:I13 J1:J13 K1:K13 L1:L13 M1:M13 P1:P13 Q1:Q13 R1:R13 S1:S13 T1:T13 U1:U13 V1:V13 W1:W13 X1:X13 Y1:Y13 Z1:Z13 AA1:AA13 AB1:AB13 AC1:AC13 AD1:AD13 AE1:AE13 AF1:AF13 AG1:AG13 AH1:AH13 AI1:AI13 AJ1:AJ13 AK1:AK13 AL1:AL13 AM1:AM13 AN1:AN13 AO1:AO13 AP1:AP13 AQ1:AQ13 AR1:AR13 AS1:AS13 AT1:AT13 AU1:AU13 AV1:AV13 X20 C14:C21 D14:D21 G14:G21 I14:I21 J14:J21 K14:K21 L14:L21 M14:M21 P14:P21 Q14:Q21 R14:R21 S14:S21 T14:T21 U14:U21 V14:V21 W14:W21 X14:X18 Y14:Y20 Z14:Z21 AA14:AA21 AB14:AB21 AC14:AC21 AD14:AD21 AE14:AE21 AF14:AF21 AG14:AG21 AH14:AH21 AI14:AI21 AJ14:AJ21 AK14:AK21 AL14:AL21 AM14:AM21 AN14:AN21 AO14:AO21 AP14:AP21 AQ14:AQ21 AR14:AR21 AS14:AS21 AT14:AT21 AU14:AU21 AV14:AV21" numberStoredAsText="1"/>
+    <ignoredError sqref="C1:C9 D1:D9 G1:G9 I1:I9 J1:J9 K1:K9 L1:L9 M1:M9 P1:P9 Q1:Q9 R1:R9 S1:S9 T1:T9 U1:U9 V1:V9 W1:W9 X1:X9 Y1:Y9 Z1:Z9 AA1:AA9 AB1:AB9 AC1:AC9 AD1:AD9 AE1:AE9 AF1:AF9 AG1:AG9 AH1:AH9 AI1:AI9 AJ1:AJ9 AK1:AK9 AL1:AL9 AM1:AM9 AN1:AN9 AO1:AO9 AP1:AP9 AQ1:AQ9 AR1:AR9 AS1:AS9 AT1:AT9 AU1:AU9 AV1:AV9 X19 C13:C20 D13:D20 G13:G20 I13:I20 J13:J20 K13:K20 L13:L20 M13:M20 P13:P20 Q13:Q20 R13:R20 S13:S20 T13:T20 U13:U20 V13:V20 W13:W20 X13:X17 Y13:Y19 Z13:Z20 AA13:AA20 AB13:AB20 AC13:AC20 AD13:AD20 AE13:AE20 AF13:AF20 AG13:AG20 AH13:AH20 AI13:AI20 AJ13:AJ20 AK13:AK20 AL13:AL20 AM13:AM20 AN13:AN20 AO13:AO20 AP13:AP20 AQ13:AQ20 AR13:AR20 AS13:AS20 AT13:AT20 AU13:AU20 AV13:AV20 C10:C12 D10:D12 G10:G12 I10:I12 J10:J12 K10:K12 L10:L12 M10:M12 P10:P12 Q10:Q12 R10:R12 S10:S12 T10:T12 U10:U12 V10:V12 W10:W12 X10:X12 Y10:Y12 Z10:Z12 AA10:AA12 AB10:AB12 AC10:AC12 AD10:AD12 AE10:AE12 AF10:AF12 AG10:AG12 AH10:AH12 AI10:AI12 AJ10:AJ12 AK10:AK12 AL10:AL12 AM10:AM12 AN10:AN12 AO10:AO12 AP10:AP12 AQ10:AQ12 AR10:AR12 AS10:AS12 AT10:AT12 AU10:AU12 AV10:AV12" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>